--- a/changeCSVtoXLSX/gold_prices_pnj_09-12-2024.xlsx
+++ b/changeCSVtoXLSX/gold_prices_pnj_09-12-2024.xlsx
@@ -44,10 +44,10 @@
     <t>Giá vàng nữ trang Vàng 750 (18K)</t>
   </si>
   <si>
-    <t>61680000</t>
-  </si>
-  <si>
-    <t>63080000</t>
+    <t>61830000</t>
+  </si>
+  <si>
+    <t>63230000</t>
   </si>
   <si>
     <t>Tây Nguyên SJC</t>
@@ -56,10 +56,10 @@
     <t>Đông Nam Bộ PNJ</t>
   </si>
   <si>
-    <t>83200000</t>
-  </si>
-  <si>
-    <t>84200000</t>
+    <t>83350000</t>
+  </si>
+  <si>
+    <t>84450000</t>
   </si>
   <si>
     <t>Đông Nam Bộ SJC</t>
@@ -71,37 +71,37 @@
     <t>Giá vàng nữ trang Vàng nữ trang 999.9</t>
   </si>
   <si>
-    <t>83100000</t>
-  </si>
-  <si>
-    <t>83900000</t>
+    <t>83300000</t>
+  </si>
+  <si>
+    <t>84100000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng nữ trang 999</t>
   </si>
   <si>
-    <t>83020000</t>
-  </si>
-  <si>
-    <t>83820000</t>
+    <t>83220000</t>
+  </si>
+  <si>
+    <t>84020000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng nữ trang 99</t>
   </si>
   <si>
-    <t>82160000</t>
-  </si>
-  <si>
-    <t>83160000</t>
+    <t>82360000</t>
+  </si>
+  <si>
+    <t>83360000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng 916 (22K)</t>
   </si>
   <si>
-    <t>76450000</t>
-  </si>
-  <si>
-    <t>76950000</t>
+    <t>76640000</t>
+  </si>
+  <si>
+    <t>77140000</t>
   </si>
   <si>
     <t>Tây Nguyên PNJ</t>
@@ -110,64 +110,64 @@
     <t>Giá vàng nữ trang Vàng 680 (16.3K)</t>
   </si>
   <si>
-    <t>55800000</t>
-  </si>
-  <si>
-    <t>57200000</t>
+    <t>55940000</t>
+  </si>
+  <si>
+    <t>57340000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng 650 (15.6K)</t>
   </si>
   <si>
-    <t>53290000</t>
-  </si>
-  <si>
-    <t>54690000</t>
+    <t>53420000</t>
+  </si>
+  <si>
+    <t>54820000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng 610 (14.6K)</t>
   </si>
   <si>
-    <t>49930000</t>
-  </si>
-  <si>
-    <t>51330000</t>
+    <t>50050000</t>
+  </si>
+  <si>
+    <t>51450000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng 585 (14K)</t>
   </si>
   <si>
-    <t>47830000</t>
-  </si>
-  <si>
-    <t>49230000</t>
+    <t>47950000</t>
+  </si>
+  <si>
+    <t>49350000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng 416 (10K)</t>
   </si>
   <si>
-    <t>33650000</t>
-  </si>
-  <si>
-    <t>35050000</t>
+    <t>33740000</t>
+  </si>
+  <si>
+    <t>35140000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng 375 (9K)</t>
   </si>
   <si>
-    <t>30210000</t>
-  </si>
-  <si>
-    <t>31610000</t>
+    <t>30290000</t>
+  </si>
+  <si>
+    <t>31690000</t>
   </si>
   <si>
     <t>Giá vàng nữ trang Vàng 333 (8K)</t>
   </si>
   <si>
-    <t>26440000</t>
-  </si>
-  <si>
-    <t>27840000</t>
+    <t>26500000</t>
+  </si>
+  <si>
+    <t>27900000</t>
   </si>
   <si>
     <t>TPHCM PNJ</t>
